--- a/10_Java/学习笔记_总结_第三方库.xlsx
+++ b/10_Java/学习笔记_总结_第三方库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23250" windowHeight="13170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="381">
   <si>
     <r>
       <rPr>
@@ -3258,10 +3258,6 @@
   </si>
   <si>
     <t>Druid</t>
-  </si>
-  <si>
-    <t>Druid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DRUID是阿里巴巴开源平台上一个数据库连接池实现，它结合了C3P0、DBCP、PROXOOL等DB池的优点，同时加入了日志监控，可以很好的监控DB池连接和SQL的执行情况，可以说是针对监控而生的DB连接池，据说是目前最好的连接池。</t>
@@ -5050,6 +5046,28 @@
     &lt;artifactId&gt;druid-spring-boot-starter&lt;/artifactId&gt;
     &lt;version&gt;1.1.16&lt;/version&gt;
 &lt;/dependency&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Druid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3p0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!-- https://mvnrepository.com/artifact/org.springframework/spring-jdbc --&gt;
+&lt;dependency&gt;
+    &lt;groupId&gt;org.springframework&lt;/groupId&gt;
+    &lt;artifactId&gt;spring-jdbc&lt;/artifactId&gt;
+    &lt;version&gt;5.3.18&lt;/version&gt;
+&lt;/dependency&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6274,11 +6292,11 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6296,7 +6314,7 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6311,7 +6329,7 @@
       <selection activeCell="H34" sqref="H34:H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6324,7 +6342,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6339,7 +6357,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6354,7 +6372,7 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6369,7 +6387,7 @@
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6384,7 +6402,7 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6396,25 +6414,25 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="58" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="8" width="56.6640625" customWidth="1"/>
-    <col min="9" max="9" width="63.6640625" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="7" max="8" width="56.625" customWidth="1"/>
+    <col min="9" max="9" width="63.625" customWidth="1"/>
+    <col min="10" max="10" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6428,13 +6446,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -6446,7 +6464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6454,25 +6472,25 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6490,7 +6508,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="138" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6499,32 +6517,32 @@
         <v>228</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="57" t="s">
         <v>354</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>355</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -6532,85 +6550,85 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>231</v>
+        <v>377</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
       <c r="G7" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -6618,19 +6636,19 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -6638,42 +6656,42 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E12" s="57"/>
       <c r="F12" s="3"/>
@@ -6682,32 +6700,34 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>378</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
@@ -6716,21 +6736,25 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>380</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6744,7 +6768,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6758,7 +6782,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6772,7 +6796,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6786,7 +6810,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6800,7 +6824,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -6814,7 +6838,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -6828,7 +6852,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -6842,7 +6866,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -6856,7 +6880,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -6870,7 +6894,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -6884,7 +6908,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -6898,7 +6922,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6912,7 +6936,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -6926,7 +6950,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -6940,7 +6964,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6978,19 +7002,19 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="58" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="8" width="56.6640625" customWidth="1"/>
-    <col min="9" max="9" width="63.6640625" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="7" max="8" width="56.625" customWidth="1"/>
+    <col min="9" max="9" width="63.625" customWidth="1"/>
+    <col min="10" max="10" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7004,13 +7028,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -7022,39 +7046,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="E3" s="57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
@@ -7062,7 +7086,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -7076,7 +7100,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -7090,7 +7114,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7104,7 +7128,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7118,7 +7142,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7132,7 +7156,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7146,7 +7170,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7160,7 +7184,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -7174,7 +7198,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7188,7 +7212,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7202,7 +7226,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -7216,7 +7240,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -7230,7 +7254,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -7244,7 +7268,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -7258,7 +7282,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -7272,7 +7296,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -7286,7 +7310,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -7300,7 +7324,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -7314,7 +7338,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -7328,7 +7352,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -7342,7 +7366,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7356,7 +7380,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7370,7 +7394,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7384,7 +7408,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -7398,7 +7422,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -7412,7 +7436,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -7426,7 +7450,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -7440,7 +7464,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -7474,19 +7498,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -7509,165 +7533,165 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="2:2" ht="19.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="21" t="s">
         <v>43</v>
       </c>
@@ -7678,7 +7702,7 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="21" t="s">
         <v>44</v>
       </c>
@@ -7689,7 +7713,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>45</v>
       </c>
@@ -7700,7 +7724,7 @@
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
         <v>46</v>
       </c>
@@ -7711,7 +7735,7 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
         <v>47</v>
       </c>
@@ -7722,7 +7746,7 @@
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="21" t="s">
         <v>48</v>
       </c>
@@ -7733,7 +7757,7 @@
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="21" t="s">
         <v>49</v>
       </c>
@@ -7744,7 +7768,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="21" t="s">
         <v>49</v>
       </c>
@@ -7755,7 +7779,7 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="21" t="s">
         <v>50</v>
       </c>
@@ -7766,7 +7790,7 @@
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>51</v>
       </c>
@@ -7777,7 +7801,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="21" t="s">
         <v>52</v>
       </c>
@@ -7788,7 +7812,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="21" t="s">
         <v>53</v>
       </c>
@@ -7799,7 +7823,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="21" t="s">
         <v>54</v>
       </c>
@@ -7810,7 +7834,7 @@
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="21" t="s">
         <v>55</v>
       </c>
@@ -7821,7 +7845,7 @@
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="21" t="s">
         <v>56</v>
       </c>
@@ -7832,7 +7856,7 @@
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="21" t="s">
         <v>57</v>
       </c>
@@ -7843,7 +7867,7 @@
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>58</v>
       </c>
@@ -7854,7 +7878,7 @@
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="21" t="s">
         <v>59</v>
       </c>
@@ -7865,7 +7889,7 @@
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="21" t="s">
         <v>60</v>
       </c>
@@ -7876,7 +7900,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="23"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -7885,7 +7909,7 @@
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="23"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -7894,7 +7918,7 @@
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="21" t="s">
         <v>61</v>
       </c>
@@ -7905,7 +7929,7 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="24"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
@@ -7914,12 +7938,12 @@
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="25" t="s">
         <v>63</v>
       </c>
@@ -7929,7 +7953,7 @@
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
         <v>64</v>
       </c>
@@ -7939,7 +7963,7 @@
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="21" t="s">
         <v>226</v>
       </c>
@@ -7949,7 +7973,7 @@
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="21" t="s">
         <v>66</v>
       </c>
@@ -7959,7 +7983,7 @@
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="25" t="s">
         <v>67</v>
       </c>
@@ -7969,7 +7993,7 @@
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="25" t="s">
         <v>63</v>
       </c>
@@ -7979,7 +8003,7 @@
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>68</v>
       </c>
@@ -7989,7 +8013,7 @@
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="21" t="s">
         <v>69</v>
       </c>
@@ -7999,7 +8023,7 @@
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="25" t="s">
         <v>67</v>
       </c>
@@ -8009,12 +8033,12 @@
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
     </row>
-    <row r="66" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B66" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="26" t="s">
         <v>70</v>
       </c>
@@ -8025,7 +8049,7 @@
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="26" t="s">
         <v>71</v>
       </c>
@@ -8036,7 +8060,7 @@
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="25" t="s">
         <v>72</v>
       </c>
@@ -8047,7 +8071,7 @@
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="23"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -8056,7 +8080,7 @@
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="21" t="s">
         <v>73</v>
       </c>
@@ -8067,7 +8091,7 @@
       <c r="G71" s="22"/>
       <c r="H71" s="22"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="21" t="s">
         <v>74</v>
       </c>
@@ -8078,7 +8102,7 @@
       <c r="G72" s="22"/>
       <c r="H72" s="22"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="21" t="s">
         <v>75</v>
       </c>
@@ -8089,7 +8113,7 @@
       <c r="G73" s="22"/>
       <c r="H73" s="22"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="23"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
@@ -8098,7 +8122,7 @@
       <c r="G74" s="22"/>
       <c r="H74" s="22"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="21" t="s">
         <v>76</v>
       </c>
@@ -8109,62 +8133,62 @@
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="21" t="s">
         <v>79</v>
       </c>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="27" t="s">
         <v>81</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B83" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="21" t="s">
         <v>86</v>
       </c>
@@ -8175,7 +8199,7 @@
       <c r="G85" s="22"/>
       <c r="H85" s="22"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="21" t="s">
         <v>87</v>
       </c>
@@ -8186,7 +8210,7 @@
       <c r="G86" s="22"/>
       <c r="H86" s="22"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="21" t="s">
         <v>88</v>
       </c>
@@ -8197,7 +8221,7 @@
       <c r="G87" s="22"/>
       <c r="H87" s="22"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="21" t="s">
         <v>89</v>
       </c>
@@ -8208,7 +8232,7 @@
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="21" t="s">
         <v>90</v>
       </c>
@@ -8219,7 +8243,7 @@
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
         <v>91</v>
       </c>
@@ -8230,7 +8254,7 @@
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>86</v>
       </c>
@@ -8241,7 +8265,7 @@
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>92</v>
       </c>
@@ -8252,7 +8276,7 @@
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="21" t="s">
         <v>93</v>
       </c>
@@ -8263,7 +8287,7 @@
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="21" t="s">
         <v>90</v>
       </c>
@@ -8274,15 +8298,15 @@
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="16"/>
     </row>
-    <row r="96" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B96" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="28" t="s">
         <v>94</v>
       </c>
@@ -8290,7 +8314,7 @@
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="28" t="s">
         <v>95</v>
       </c>
@@ -8298,7 +8322,7 @@
       <c r="D98" s="22"/>
       <c r="E98" s="22"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="28" t="s">
         <v>96</v>
       </c>
@@ -8306,7 +8330,7 @@
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="28" t="s">
         <v>97</v>
       </c>
@@ -8314,7 +8338,7 @@
       <c r="D100" s="22"/>
       <c r="E100" s="22"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="28" t="s">
         <v>98</v>
       </c>
@@ -8322,7 +8346,7 @@
       <c r="D101" s="22"/>
       <c r="E101" s="22"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="28" t="s">
         <v>99</v>
       </c>
@@ -8330,7 +8354,7 @@
       <c r="D102" s="22"/>
       <c r="E102" s="22"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="28" t="s">
         <v>100</v>
       </c>
@@ -8338,7 +8362,7 @@
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="28" t="s">
         <v>101</v>
       </c>
@@ -8346,7 +8370,7 @@
       <c r="D104" s="22"/>
       <c r="E104" s="22"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="28" t="s">
         <v>102</v>
       </c>
@@ -8354,13 +8378,13 @@
       <c r="D105" s="22"/>
       <c r="E105" s="22"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="23"/>
       <c r="C106" s="22"/>
       <c r="D106" s="22"/>
       <c r="E106" s="22"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="28" t="s">
         <v>103</v>
       </c>
@@ -8368,7 +8392,7 @@
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="28" t="s">
         <v>104</v>
       </c>
@@ -8376,7 +8400,7 @@
       <c r="D108" s="22"/>
       <c r="E108" s="22"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="28" t="s">
         <v>105</v>
       </c>
@@ -8384,7 +8408,7 @@
       <c r="D109" s="22"/>
       <c r="E109" s="22"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="28" t="s">
         <v>106</v>
       </c>
@@ -8392,7 +8416,7 @@
       <c r="D110" s="22"/>
       <c r="E110" s="22"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="28" t="s">
         <v>107</v>
       </c>
@@ -8400,7 +8424,7 @@
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" s="28" t="s">
         <v>108</v>
       </c>
@@ -8408,7 +8432,7 @@
       <c r="D112" s="22"/>
       <c r="E112" s="22"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="28" t="s">
         <v>109</v>
       </c>
@@ -8416,7 +8440,7 @@
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="28" t="s">
         <v>110</v>
       </c>
@@ -8424,97 +8448,97 @@
       <c r="D114" s="22"/>
       <c r="E114" s="22"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="10"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="15"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" s="15"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="15"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B129" s="15"/>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B130" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="19.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B131" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B132" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B133" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B134" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B135" s="21" t="s">
         <v>123</v>
       </c>
@@ -8525,7 +8549,7 @@
       <c r="G135" s="22"/>
       <c r="H135" s="22"/>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B136" s="21" t="s">
         <v>124</v>
       </c>
@@ -8536,7 +8560,7 @@
       <c r="G136" s="22"/>
       <c r="H136" s="22"/>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B137" s="21" t="s">
         <v>125</v>
       </c>
@@ -8547,7 +8571,7 @@
       <c r="G137" s="22"/>
       <c r="H137" s="22"/>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B138" s="25" t="s">
         <v>67</v>
       </c>
@@ -8558,12 +8582,12 @@
       <c r="G138" s="22"/>
       <c r="H138" s="22"/>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B139" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B140" s="28" t="s">
         <v>94</v>
       </c>
@@ -8572,7 +8596,7 @@
       <c r="E140" s="22"/>
       <c r="F140" s="22"/>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B141" s="28" t="s">
         <v>95</v>
       </c>
@@ -8581,7 +8605,7 @@
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B142" s="28" t="s">
         <v>127</v>
       </c>
@@ -8590,7 +8614,7 @@
       <c r="E142" s="22"/>
       <c r="F142" s="22"/>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B143" s="28" t="s">
         <v>101</v>
       </c>
@@ -8599,7 +8623,7 @@
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B144" s="28" t="s">
         <v>128</v>
       </c>
@@ -8608,7 +8632,7 @@
       <c r="E144" s="22"/>
       <c r="F144" s="22"/>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B145" s="28" t="s">
         <v>129</v>
       </c>
@@ -8617,7 +8641,7 @@
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B146" s="28" t="s">
         <v>130</v>
       </c>
@@ -8626,7 +8650,7 @@
       <c r="E146" s="22"/>
       <c r="F146" s="22"/>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B147" s="28" t="s">
         <v>131</v>
       </c>
@@ -8635,7 +8659,7 @@
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B148" s="28" t="s">
         <v>132</v>
       </c>
@@ -8644,7 +8668,7 @@
       <c r="E148" s="22"/>
       <c r="F148" s="22"/>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B149" s="28" t="s">
         <v>133</v>
       </c>
@@ -8653,7 +8677,7 @@
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B150" s="28" t="s">
         <v>134</v>
       </c>
@@ -8662,7 +8686,7 @@
       <c r="E150" s="22"/>
       <c r="F150" s="22"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B151" s="28" t="s">
         <v>103</v>
       </c>
@@ -8671,7 +8695,7 @@
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B152" s="28" t="s">
         <v>104</v>
       </c>
@@ -8680,7 +8704,7 @@
       <c r="E152" s="22"/>
       <c r="F152" s="22"/>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B153" s="28" t="s">
         <v>105</v>
       </c>
@@ -8689,7 +8713,7 @@
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B154" s="28" t="s">
         <v>106</v>
       </c>
@@ -8698,7 +8722,7 @@
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B155" s="28" t="s">
         <v>135</v>
       </c>
@@ -8707,7 +8731,7 @@
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B156" s="28" t="s">
         <v>108</v>
       </c>
@@ -8716,7 +8740,7 @@
       <c r="E156" s="22"/>
       <c r="F156" s="22"/>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B157" s="28" t="s">
         <v>109</v>
       </c>
@@ -8725,7 +8749,7 @@
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B158" s="28" t="s">
         <v>110</v>
       </c>
@@ -8734,12 +8758,12 @@
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B159" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B160" s="26" t="s">
         <v>70</v>
       </c>
@@ -8750,7 +8774,7 @@
       <c r="G160" s="22"/>
       <c r="H160" s="22"/>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B161" s="26" t="s">
         <v>137</v>
       </c>
@@ -8761,7 +8785,7 @@
       <c r="G161" s="22"/>
       <c r="H161" s="22"/>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B162" s="25" t="s">
         <v>138</v>
       </c>
@@ -8772,7 +8796,7 @@
       <c r="G162" s="22"/>
       <c r="H162" s="22"/>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B163" s="23"/>
       <c r="C163" s="22"/>
       <c r="D163" s="22"/>
@@ -8781,7 +8805,7 @@
       <c r="G163" s="22"/>
       <c r="H163" s="22"/>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B164" s="21" t="s">
         <v>73</v>
       </c>
@@ -8792,7 +8816,7 @@
       <c r="G164" s="22"/>
       <c r="H164" s="22"/>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B165" s="21" t="s">
         <v>139</v>
       </c>
@@ -8803,7 +8827,7 @@
       <c r="G165" s="22"/>
       <c r="H165" s="22"/>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B166" s="21" t="s">
         <v>75</v>
       </c>
@@ -8814,7 +8838,7 @@
       <c r="G166" s="22"/>
       <c r="H166" s="22"/>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B167" s="21" t="s">
         <v>76</v>
       </c>
@@ -8825,22 +8849,22 @@
       <c r="G167" s="22"/>
       <c r="H167" s="22"/>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B168" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="169" spans="2:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B169" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B170" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B171" s="25" t="s">
         <v>63</v>
       </c>
@@ -8851,7 +8875,7 @@
       <c r="G171" s="22"/>
       <c r="H171" s="22"/>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B172" s="21" t="s">
         <v>64</v>
       </c>
@@ -8862,7 +8886,7 @@
       <c r="G172" s="22"/>
       <c r="H172" s="22"/>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B173" s="21" t="s">
         <v>65</v>
       </c>
@@ -8873,7 +8897,7 @@
       <c r="G173" s="22"/>
       <c r="H173" s="22"/>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B174" s="21" t="s">
         <v>66</v>
       </c>
@@ -8884,7 +8908,7 @@
       <c r="G174" s="22"/>
       <c r="H174" s="22"/>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B175" s="25" t="s">
         <v>67</v>
       </c>
@@ -8895,7 +8919,7 @@
       <c r="G175" s="22"/>
       <c r="H175" s="22"/>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B176" s="23"/>
       <c r="C176" s="22"/>
       <c r="D176" s="22"/>
@@ -8904,7 +8928,7 @@
       <c r="G176" s="22"/>
       <c r="H176" s="22"/>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B177" s="25" t="s">
         <v>63</v>
       </c>
@@ -8915,7 +8939,7 @@
       <c r="G177" s="22"/>
       <c r="H177" s="22"/>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B178" s="21" t="s">
         <v>68</v>
       </c>
@@ -8926,7 +8950,7 @@
       <c r="G178" s="22"/>
       <c r="H178" s="22"/>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B179" s="21" t="s">
         <v>69</v>
       </c>
@@ -8937,7 +8961,7 @@
       <c r="G179" s="22"/>
       <c r="H179" s="22"/>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="25" t="s">
         <v>67</v>
       </c>
@@ -8948,7 +8972,7 @@
       <c r="G180" s="22"/>
       <c r="H180" s="22"/>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B181" s="21" t="s">
         <v>143</v>
       </c>
@@ -8959,7 +8983,7 @@
       <c r="G181" s="22"/>
       <c r="H181" s="22"/>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B182" s="25" t="s">
         <v>63</v>
       </c>
@@ -8970,7 +8994,7 @@
       <c r="G182" s="22"/>
       <c r="H182" s="22"/>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B183" s="21" t="s">
         <v>124</v>
       </c>
@@ -8981,7 +9005,7 @@
       <c r="G183" s="22"/>
       <c r="H183" s="22"/>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="21" t="s">
         <v>144</v>
       </c>
@@ -8992,7 +9016,7 @@
       <c r="G184" s="22"/>
       <c r="H184" s="22"/>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B185" s="25" t="s">
         <v>67</v>
       </c>
@@ -9003,12 +9027,12 @@
       <c r="G185" s="22"/>
       <c r="H185" s="22"/>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B186" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B187" s="29" t="s">
         <v>94</v>
       </c>
@@ -9019,7 +9043,7 @@
       <c r="G187" s="22"/>
       <c r="H187" s="22"/>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="29" t="s">
         <v>95</v>
       </c>
@@ -9030,7 +9054,7 @@
       <c r="G188" s="22"/>
       <c r="H188" s="22"/>
     </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B189" s="29" t="s">
         <v>146</v>
       </c>
@@ -9041,7 +9065,7 @@
       <c r="G189" s="22"/>
       <c r="H189" s="22"/>
     </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B190" s="29" t="s">
         <v>101</v>
       </c>
@@ -9052,7 +9076,7 @@
       <c r="G190" s="22"/>
       <c r="H190" s="22"/>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B191" s="29" t="s">
         <v>147</v>
       </c>
@@ -9063,7 +9087,7 @@
       <c r="G191" s="22"/>
       <c r="H191" s="22"/>
     </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="29" t="s">
         <v>129</v>
       </c>
@@ -9074,7 +9098,7 @@
       <c r="G192" s="22"/>
       <c r="H192" s="22"/>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B193" s="29" t="s">
         <v>130</v>
       </c>
@@ -9085,7 +9109,7 @@
       <c r="G193" s="22"/>
       <c r="H193" s="22"/>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B194" s="29" t="s">
         <v>148</v>
       </c>
@@ -9096,7 +9120,7 @@
       <c r="G194" s="22"/>
       <c r="H194" s="22"/>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B195" s="29" t="s">
         <v>131</v>
       </c>
@@ -9107,7 +9131,7 @@
       <c r="G195" s="22"/>
       <c r="H195" s="22"/>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="29" t="s">
         <v>149</v>
       </c>
@@ -9118,7 +9142,7 @@
       <c r="G196" s="22"/>
       <c r="H196" s="22"/>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B197" s="29" t="s">
         <v>150</v>
       </c>
@@ -9129,7 +9153,7 @@
       <c r="G197" s="22"/>
       <c r="H197" s="22"/>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B198" s="29" t="s">
         <v>151</v>
       </c>
@@ -9140,7 +9164,7 @@
       <c r="G198" s="22"/>
       <c r="H198" s="22"/>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B199" s="29" t="s">
         <v>152</v>
       </c>
@@ -9151,7 +9175,7 @@
       <c r="G199" s="22"/>
       <c r="H199" s="22"/>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="23"/>
       <c r="C200" s="22"/>
       <c r="D200" s="22"/>
@@ -9160,7 +9184,7 @@
       <c r="G200" s="22"/>
       <c r="H200" s="22"/>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B201" s="29" t="s">
         <v>103</v>
       </c>
@@ -9171,7 +9195,7 @@
       <c r="G201" s="22"/>
       <c r="H201" s="22"/>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B202" s="29" t="s">
         <v>104</v>
       </c>
@@ -9182,7 +9206,7 @@
       <c r="G202" s="22"/>
       <c r="H202" s="22"/>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B203" s="29" t="s">
         <v>105</v>
       </c>
@@ -9193,7 +9217,7 @@
       <c r="G203" s="22"/>
       <c r="H203" s="22"/>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="29" t="s">
         <v>106</v>
       </c>
@@ -9204,7 +9228,7 @@
       <c r="G204" s="22"/>
       <c r="H204" s="22"/>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B205" s="29" t="s">
         <v>153</v>
       </c>
@@ -9215,7 +9239,7 @@
       <c r="G205" s="22"/>
       <c r="H205" s="22"/>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B206" s="29" t="s">
         <v>108</v>
       </c>
@@ -9226,7 +9250,7 @@
       <c r="G206" s="22"/>
       <c r="H206" s="22"/>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B207" s="29" t="s">
         <v>109</v>
       </c>
@@ -9237,7 +9261,7 @@
       <c r="G207" s="22"/>
       <c r="H207" s="22"/>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="29" t="s">
         <v>154</v>
       </c>
@@ -9248,12 +9272,12 @@
       <c r="G208" s="22"/>
       <c r="H208" s="22"/>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B209" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B210" s="26" t="s">
         <v>70</v>
       </c>
@@ -9264,7 +9288,7 @@
       <c r="G210" s="22"/>
       <c r="H210" s="22"/>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B211" s="26" t="s">
         <v>71</v>
       </c>
@@ -9275,7 +9299,7 @@
       <c r="G211" s="22"/>
       <c r="H211" s="22"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B212" s="26" t="s">
         <v>156</v>
       </c>
@@ -9286,7 +9310,7 @@
       <c r="G212" s="22"/>
       <c r="H212" s="22"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B213" s="25" t="s">
         <v>72</v>
       </c>
@@ -9297,7 +9321,7 @@
       <c r="G213" s="22"/>
       <c r="H213" s="22"/>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B214" s="23"/>
       <c r="C214" s="22"/>
       <c r="D214" s="22"/>
@@ -9306,7 +9330,7 @@
       <c r="G214" s="22"/>
       <c r="H214" s="22"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B215" s="21" t="s">
         <v>73</v>
       </c>
@@ -9317,7 +9341,7 @@
       <c r="G215" s="22"/>
       <c r="H215" s="22"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B216" s="21" t="s">
         <v>74</v>
       </c>
@@ -9328,7 +9352,7 @@
       <c r="G216" s="22"/>
       <c r="H216" s="22"/>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B217" s="21" t="s">
         <v>75</v>
       </c>
@@ -9339,7 +9363,7 @@
       <c r="G217" s="22"/>
       <c r="H217" s="22"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B218" s="23"/>
       <c r="C218" s="22"/>
       <c r="D218" s="22"/>
@@ -9348,22 +9372,22 @@
       <c r="G218" s="22"/>
       <c r="H218" s="22"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B219" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="2:9" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" ht="15" x14ac:dyDescent="0.2">
       <c r="B220" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B221" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B222" s="21" t="s">
         <v>123</v>
       </c>
@@ -9375,7 +9399,7 @@
       <c r="H222" s="22"/>
       <c r="I222" s="22"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B223" s="21" t="s">
         <v>92</v>
       </c>
@@ -9387,7 +9411,7 @@
       <c r="H223" s="22"/>
       <c r="I223" s="22"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B224" s="21" t="s">
         <v>159</v>
       </c>
@@ -9399,7 +9423,7 @@
       <c r="H224" s="22"/>
       <c r="I224" s="22"/>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B225" s="21" t="s">
         <v>90</v>
       </c>
@@ -9411,7 +9435,7 @@
       <c r="H225" s="22"/>
       <c r="I225" s="22"/>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B226" s="23"/>
       <c r="C226" s="22"/>
       <c r="D226" s="22"/>
@@ -9421,7 +9445,7 @@
       <c r="H226" s="22"/>
       <c r="I226" s="22"/>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B227" s="21" t="s">
         <v>86</v>
       </c>
@@ -9433,7 +9457,7 @@
       <c r="H227" s="22"/>
       <c r="I227" s="22"/>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B228" s="21" t="s">
         <v>160</v>
       </c>
@@ -9445,7 +9469,7 @@
       <c r="H228" s="22"/>
       <c r="I228" s="22"/>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B229" s="21" t="s">
         <v>161</v>
       </c>
@@ -9457,7 +9481,7 @@
       <c r="H229" s="22"/>
       <c r="I229" s="22"/>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B230" s="21" t="s">
         <v>90</v>
       </c>
@@ -9469,7 +9493,7 @@
       <c r="H230" s="22"/>
       <c r="I230" s="22"/>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B231" s="23"/>
       <c r="C231" s="22"/>
       <c r="D231" s="22"/>
@@ -9479,7 +9503,7 @@
       <c r="H231" s="22"/>
       <c r="I231" s="22"/>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B232" s="21" t="s">
         <v>86</v>
       </c>
@@ -9491,7 +9515,7 @@
       <c r="H232" s="22"/>
       <c r="I232" s="22"/>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>92</v>
       </c>
@@ -9503,7 +9527,7 @@
       <c r="H233" s="22"/>
       <c r="I233" s="22"/>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B234" s="21" t="s">
         <v>162</v>
       </c>
@@ -9515,7 +9539,7 @@
       <c r="H234" s="22"/>
       <c r="I234" s="22"/>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B235" s="21" t="s">
         <v>90</v>
       </c>
@@ -9527,12 +9551,12 @@
       <c r="H235" s="22"/>
       <c r="I235" s="22"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B236" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B237" s="21" t="s">
         <v>94</v>
       </c>
@@ -9543,7 +9567,7 @@
       <c r="G237" s="22"/>
       <c r="H237" s="22"/>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B238" s="21" t="s">
         <v>95</v>
       </c>
@@ -9554,7 +9578,7 @@
       <c r="G238" s="22"/>
       <c r="H238" s="22"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B239" s="21" t="s">
         <v>96</v>
       </c>
@@ -9565,7 +9589,7 @@
       <c r="G239" s="22"/>
       <c r="H239" s="22"/>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>129</v>
       </c>
@@ -9576,7 +9600,7 @@
       <c r="G240" s="22"/>
       <c r="H240" s="22"/>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B241" s="21" t="s">
         <v>150</v>
       </c>
@@ -9587,7 +9611,7 @@
       <c r="G241" s="22"/>
       <c r="H241" s="22"/>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B242" s="21" t="s">
         <v>164</v>
       </c>
@@ -9598,7 +9622,7 @@
       <c r="G242" s="22"/>
       <c r="H242" s="22"/>
     </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B243" s="21" t="s">
         <v>165</v>
       </c>
@@ -9609,7 +9633,7 @@
       <c r="G243" s="22"/>
       <c r="H243" s="22"/>
     </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B244" s="23"/>
       <c r="C244" s="22"/>
       <c r="D244" s="22"/>
@@ -9618,7 +9642,7 @@
       <c r="G244" s="22"/>
       <c r="H244" s="22"/>
     </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B245" s="21" t="s">
         <v>130</v>
       </c>
@@ -9629,7 +9653,7 @@
       <c r="G245" s="22"/>
       <c r="H245" s="22"/>
     </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B246" s="21" t="s">
         <v>166</v>
       </c>
@@ -9640,7 +9664,7 @@
       <c r="G246" s="22"/>
       <c r="H246" s="22"/>
     </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>131</v>
       </c>
@@ -9651,7 +9675,7 @@
       <c r="G247" s="22"/>
       <c r="H247" s="22"/>
     </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B248" s="21" t="s">
         <v>167</v>
       </c>
@@ -9662,7 +9686,7 @@
       <c r="G248" s="22"/>
       <c r="H248" s="22"/>
     </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B249" s="21" t="s">
         <v>103</v>
       </c>
@@ -9673,7 +9697,7 @@
       <c r="G249" s="22"/>
       <c r="H249" s="22"/>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B250" s="21" t="s">
         <v>104</v>
       </c>
@@ -9684,7 +9708,7 @@
       <c r="G250" s="22"/>
       <c r="H250" s="22"/>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B251" s="21" t="s">
         <v>105</v>
       </c>
@@ -9695,7 +9719,7 @@
       <c r="G251" s="22"/>
       <c r="H251" s="22"/>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B252" s="21" t="s">
         <v>106</v>
       </c>
@@ -9706,7 +9730,7 @@
       <c r="G252" s="22"/>
       <c r="H252" s="22"/>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B253" s="21" t="s">
         <v>168</v>
       </c>
@@ -9717,7 +9741,7 @@
       <c r="G253" s="22"/>
       <c r="H253" s="22"/>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>108</v>
       </c>
@@ -9728,7 +9752,7 @@
       <c r="G254" s="22"/>
       <c r="H254" s="22"/>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B255" s="21" t="s">
         <v>109</v>
       </c>
@@ -9739,7 +9763,7 @@
       <c r="G255" s="22"/>
       <c r="H255" s="22"/>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B256" s="21" t="s">
         <v>110</v>
       </c>
@@ -9750,7 +9774,7 @@
       <c r="G256" s="22"/>
       <c r="H256" s="22"/>
     </row>
-    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B257" s="21" t="s">
         <v>101</v>
       </c>
@@ -9761,7 +9785,7 @@
       <c r="G257" s="22"/>
       <c r="H257" s="22"/>
     </row>
-    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B258" s="21" t="s">
         <v>169</v>
       </c>
@@ -9772,12 +9796,12 @@
       <c r="G258" s="22"/>
       <c r="H258" s="22"/>
     </row>
-    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B259" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B260" s="26" t="s">
         <v>70</v>
       </c>
@@ -9788,7 +9812,7 @@
       <c r="G260" s="22"/>
       <c r="H260" s="22"/>
     </row>
-    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B261" s="26" t="s">
         <v>156</v>
       </c>
@@ -9799,7 +9823,7 @@
       <c r="G261" s="22"/>
       <c r="H261" s="22"/>
     </row>
-    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B262" s="25" t="s">
         <v>112</v>
       </c>
@@ -9810,7 +9834,7 @@
       <c r="G262" s="22"/>
       <c r="H262" s="22"/>
     </row>
-    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B263" s="23"/>
       <c r="C263" s="22"/>
       <c r="D263" s="22"/>
@@ -9819,7 +9843,7 @@
       <c r="G263" s="22"/>
       <c r="H263" s="22"/>
     </row>
-    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B264" s="21" t="s">
         <v>73</v>
       </c>
@@ -9830,7 +9854,7 @@
       <c r="G264" s="22"/>
       <c r="H264" s="22"/>
     </row>
-    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B265" s="21" t="s">
         <v>113</v>
       </c>
@@ -9841,7 +9865,7 @@
       <c r="G265" s="22"/>
       <c r="H265" s="22"/>
     </row>
-    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B266" s="21" t="s">
         <v>75</v>
       </c>
@@ -9852,7 +9876,7 @@
       <c r="G266" s="22"/>
       <c r="H266" s="22"/>
     </row>
-    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B267" s="21" t="s">
         <v>76</v>
       </c>
@@ -9863,30 +9887,30 @@
       <c r="G267" s="22"/>
       <c r="H267" s="22"/>
     </row>
-    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B268" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B269" s="15"/>
     </row>
-    <row r="270" spans="2:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B270" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B271" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B272" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B273" s="25" t="s">
         <v>63</v>
       </c>
@@ -9896,7 +9920,7 @@
       <c r="F273" s="22"/>
       <c r="G273" s="22"/>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B274" s="21" t="s">
         <v>68</v>
       </c>
@@ -9906,7 +9930,7 @@
       <c r="F274" s="22"/>
       <c r="G274" s="22"/>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>175</v>
       </c>
@@ -9916,7 +9940,7 @@
       <c r="F275" s="22"/>
       <c r="G275" s="22"/>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B276" s="25" t="s">
         <v>67</v>
       </c>
@@ -9926,12 +9950,12 @@
       <c r="F276" s="22"/>
       <c r="G276" s="22"/>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B277" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B278" s="29" t="s">
         <v>94</v>
       </c>
@@ -9941,7 +9965,7 @@
       <c r="F278" s="22"/>
       <c r="G278" s="22"/>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B279" s="29" t="s">
         <v>177</v>
       </c>
@@ -9951,7 +9975,7 @@
       <c r="F279" s="22"/>
       <c r="G279" s="22"/>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B280" s="29" t="s">
         <v>178</v>
       </c>
@@ -9961,7 +9985,7 @@
       <c r="F280" s="22"/>
       <c r="G280" s="22"/>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B281" s="29" t="s">
         <v>179</v>
       </c>
@@ -9971,7 +9995,7 @@
       <c r="F281" s="22"/>
       <c r="G281" s="22"/>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B282" s="29" t="s">
         <v>180</v>
       </c>
@@ -9981,7 +10005,7 @@
       <c r="F282" s="22"/>
       <c r="G282" s="22"/>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>181</v>
       </c>
@@ -9991,7 +10015,7 @@
       <c r="F283" s="22"/>
       <c r="G283" s="22"/>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B284" s="29" t="s">
         <v>129</v>
       </c>
@@ -10001,7 +10025,7 @@
       <c r="F284" s="22"/>
       <c r="G284" s="22"/>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B285" s="29" t="s">
         <v>150</v>
       </c>
@@ -10011,7 +10035,7 @@
       <c r="F285" s="22"/>
       <c r="G285" s="22"/>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B286" s="29" t="s">
         <v>182</v>
       </c>
@@ -10021,7 +10045,7 @@
       <c r="F286" s="22"/>
       <c r="G286" s="22"/>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B287" s="21" t="s">
         <v>183</v>
       </c>
@@ -10031,7 +10055,7 @@
       <c r="F287" s="22"/>
       <c r="G287" s="22"/>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>184</v>
       </c>
@@ -10041,237 +10065,237 @@
       <c r="F288" s="22"/>
       <c r="G288" s="22"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B290" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B291" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B292" s="10"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B293" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B294" s="10"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B295" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B296" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B297" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B298" s="10"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B299" s="9" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B300" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B301" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B302" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B303" s="9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B304" s="10"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B305" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B306" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B307" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B308" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B309" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B310" s="9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B311" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B312" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B313" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B314" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B315" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B316" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B317" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B318" s="15"/>
     </row>
-    <row r="319" spans="2:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" ht="15" x14ac:dyDescent="0.2">
       <c r="B319" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B320" s="15" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B321" s="15" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B322" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B323" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B324" s="9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B325" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B326" s="15" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B327" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B328" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B329" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B330" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B331" s="15" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="332" spans="2:2" ht="19.8" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B332" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B333" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B334" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="19.8" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" ht="19.5" x14ac:dyDescent="0.2">
       <c r="B335" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B336" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B337" s="15" t="s">
         <v>222</v>
       </c>
@@ -10289,9 +10313,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>228</v>
       </c>
@@ -10308,9 +10332,9 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>229</v>
       </c>
@@ -10330,91 +10354,91 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.2">
       <c r="B2" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="25.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="31" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="34" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>237</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
     </row>
-    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="31" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="34" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>244</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -10427,9 +10451,9 @@
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -10442,9 +10466,9 @@
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -10457,9 +10481,9 @@
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -10472,9 +10496,9 @@
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
@@ -10487,9 +10511,9 @@
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
     </row>
-    <row r="18" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
@@ -10502,9 +10526,9 @@
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -10517,7 +10541,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="36"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -10530,9 +10554,9 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -10545,9 +10569,9 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -10560,9 +10584,9 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -10575,9 +10599,9 @@
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -10590,9 +10614,9 @@
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -10605,9 +10629,9 @@
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -10620,9 +10644,9 @@
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -10635,9 +10659,9 @@
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
     </row>
-    <row r="28" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -10650,9 +10674,9 @@
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
     </row>
-    <row r="29" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -10665,9 +10689,9 @@
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
     </row>
-    <row r="30" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -10680,9 +10704,9 @@
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
     </row>
-    <row r="31" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -10695,9 +10719,9 @@
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
     </row>
-    <row r="32" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -10710,9 +10734,9 @@
       <c r="K32" s="35"/>
       <c r="L32" s="35"/>
     </row>
-    <row r="33" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -10725,9 +10749,9 @@
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
     </row>
-    <row r="34" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -10740,9 +10764,9 @@
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
     </row>
-    <row r="35" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -10755,9 +10779,9 @@
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
     </row>
-    <row r="36" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -10770,9 +10794,9 @@
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
     </row>
-    <row r="37" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -10785,9 +10809,9 @@
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
     </row>
-    <row r="38" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -10800,9 +10824,9 @@
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
     </row>
-    <row r="39" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -10815,9 +10839,9 @@
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
     </row>
-    <row r="40" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B40" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -10830,9 +10854,9 @@
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
     </row>
-    <row r="41" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B41" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -10845,9 +10869,9 @@
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
     </row>
-    <row r="42" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -10860,9 +10884,9 @@
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
     </row>
-    <row r="43" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -10875,9 +10899,9 @@
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
     </row>
-    <row r="44" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -10890,14 +10914,14 @@
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
     </row>
-    <row r="45" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B45" s="31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="37" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B46" s="37" t="s">
-        <v>276</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -10906,9 +10930,9 @@
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
     </row>
-    <row r="47" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -10917,9 +10941,9 @@
       <c r="G47" s="35"/>
       <c r="H47" s="35"/>
     </row>
-    <row r="48" spans="2:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -10928,9 +10952,9 @@
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
     </row>
-    <row r="49" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B49" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -10939,9 +10963,9 @@
       <c r="G49" s="35"/>
       <c r="H49" s="35"/>
     </row>
-    <row r="50" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -10950,9 +10974,9 @@
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
     </row>
-    <row r="51" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
@@ -10961,9 +10985,9 @@
       <c r="G51" s="35"/>
       <c r="H51" s="35"/>
     </row>
-    <row r="52" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
@@ -10972,7 +10996,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="36"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
@@ -10981,9 +11005,9 @@
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
     </row>
-    <row r="54" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
@@ -10992,9 +11016,9 @@
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
     </row>
-    <row r="55" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B55" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
@@ -11003,9 +11027,9 @@
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
     </row>
-    <row r="56" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B56" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
@@ -11014,9 +11038,9 @@
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
     </row>
-    <row r="57" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B57" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
@@ -11025,9 +11049,9 @@
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
     </row>
-    <row r="58" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B58" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
@@ -11036,17 +11060,17 @@
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="32"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B61" s="34" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
-        <v>289</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
@@ -11057,9 +11081,9 @@
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
     </row>
-    <row r="62" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
@@ -11070,9 +11094,9 @@
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
     </row>
-    <row r="63" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
@@ -11083,7 +11107,7 @@
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="36"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
@@ -11094,9 +11118,9 @@
       <c r="I64" s="35"/>
       <c r="J64" s="35"/>
     </row>
-    <row r="65" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
@@ -11107,9 +11131,9 @@
       <c r="I65" s="35"/>
       <c r="J65" s="35"/>
     </row>
-    <row r="66" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
@@ -11120,7 +11144,7 @@
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="36"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
@@ -11131,9 +11155,9 @@
       <c r="I67" s="35"/>
       <c r="J67" s="35"/>
     </row>
-    <row r="68" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
@@ -11144,9 +11168,9 @@
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
     </row>
-    <row r="69" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
@@ -11157,9 +11181,9 @@
       <c r="I69" s="35"/>
       <c r="J69" s="35"/>
     </row>
-    <row r="70" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
@@ -11170,9 +11194,9 @@
       <c r="I70" s="35"/>
       <c r="J70" s="35"/>
     </row>
-    <row r="71" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
@@ -11183,9 +11207,9 @@
       <c r="I71" s="35"/>
       <c r="J71" s="35"/>
     </row>
-    <row r="72" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
@@ -11196,9 +11220,9 @@
       <c r="I72" s="35"/>
       <c r="J72" s="35"/>
     </row>
-    <row r="73" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B73" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
@@ -11209,7 +11233,7 @@
       <c r="I73" s="35"/>
       <c r="J73" s="35"/>
     </row>
-    <row r="74" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B74" s="34" t="s">
         <v>75</v>
       </c>
@@ -11222,7 +11246,7 @@
       <c r="I74" s="35"/>
       <c r="J74" s="35"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="36"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
@@ -11233,7 +11257,7 @@
       <c r="I75" s="35"/>
       <c r="J75" s="35"/>
     </row>
-    <row r="76" spans="2:10" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B76" s="34" t="s">
         <v>76</v>
       </c>
@@ -11263,93 +11287,93 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="41" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="41" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="42" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="42" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="42" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="42" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="42" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -11358,23 +11382,23 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
     </row>
-    <row r="20" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -11383,15 +11407,15 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="48"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="50"/>
@@ -11405,9 +11429,9 @@
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
@@ -11421,9 +11445,9 @@
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -11437,15 +11461,15 @@
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
@@ -11457,7 +11481,7 @@
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="53"/>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -11469,9 +11493,9 @@
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -11483,9 +11507,9 @@
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
@@ -11497,9 +11521,9 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="50"/>
@@ -11511,7 +11535,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="53"/>
       <c r="C32" s="50"/>
       <c r="D32" s="50"/>
@@ -11523,9 +11547,9 @@
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
@@ -11537,9 +11561,9 @@
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="50"/>
@@ -11551,9 +11575,9 @@
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C35" s="50"/>
       <c r="D35" s="50"/>
@@ -11565,7 +11589,7 @@
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="53"/>
       <c r="C36" s="50"/>
       <c r="D36" s="50"/>
@@ -11577,9 +11601,9 @@
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C37" s="50"/>
       <c r="D37" s="50"/>
@@ -11591,9 +11615,9 @@
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
@@ -11605,7 +11629,7 @@
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="53"/>
       <c r="C39" s="50"/>
       <c r="D39" s="50"/>
@@ -11617,9 +11641,9 @@
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C40" s="50"/>
       <c r="D40" s="50"/>
@@ -11631,7 +11655,7 @@
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="53"/>
       <c r="C41" s="50"/>
       <c r="D41" s="50"/>
@@ -11643,9 +11667,9 @@
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C42" s="50"/>
       <c r="D42" s="50"/>
@@ -11657,9 +11681,9 @@
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
@@ -11671,7 +11695,7 @@
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="51" t="s">
         <v>76</v>
       </c>
